--- a/01_Input/00_CO Validation/Kazakhstan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kazakhstan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="11_652E137AF52521E58F19B0408CBE37AD98A83948" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9184AD8A-DEDD-4841-BC4B-F8C921F27B70}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="11_652E137AF52521E58F19B0408CBE37AD98A83948" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3817D64-B684-4386-A1C4-D69EAB3E13D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="127">
   <si>
     <t>Project ID</t>
   </si>
@@ -147,6 +150,9 @@
   </si>
   <si>
     <t>GHG Emission Reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">million </t>
   </si>
   <si>
     <t>This is forest offsets related project</t>
@@ -184,9 +190,6 @@
   </si>
   <si>
     <t>VF</t>
-  </si>
-  <si>
-    <t>Other Energy Services</t>
   </si>
   <si>
     <t>Consumer awareness of 
@@ -263,6 +266,121 @@
   </si>
   <si>
     <t xml:space="preserve">
+At least 7,500 customers 
+(including at least 4,000 women) 
+participate in rebate or coupon 
+programs, with an 80 percent 
+completion rate of required 
+surveys
+The project was under suspension, which was lifted in 2023</t>
+  </si>
+  <si>
+    <t>De-risking Renewable Energy Investment</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Number of 
+direct project beneficiaries</t>
+  </si>
+  <si>
+    <t>Mid-term target is met: over 5,000 people (60% women) are expected to benefit from solar plant in Shaulder region after a site-specific auction, supported by the Project. The figure is not yet confirmed. The number of beneficiaries of the 2 MWt project supported via the bonds issuance and the 0.5 MWt power plant that refused the subsidy is to be confirmed.</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>25 policy –makers 
+trained
+Capacity of 
+the Government to design and 
+implement policy initiatives enabling 
+development of renewable energy 
+market</t>
+  </si>
+  <si>
+    <t>he Government has 
+limited capacity to 
+deliver renewable 
+energy derisking 
+strategies</t>
+  </si>
+  <si>
+    <t>Mid-term target is met: knowledge gaps were identified; a capacity building plan was implemented:
+- 3 study tours to Netherlands, Finland and Denmark for policy makers were organized;
+- 7 regional workshops (2018) were organized to clarify the procedures of RE auctions in six regions of Kazakhstan. Over 70 potential investors and representatives of municipal authorities participated.
+- 7 renewable energy auctions workshops in three regions of Kazakhstan were organized for more than 200 potential investors, representatives of state bodies, 2 webinars were held in 2019;
+- participation and seminars at events - 2 RES summits in 2019, a seminar at Financial Settlement Center of Renewable Energy LLP and Power Expo Kazakhstan.</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Government Capacity-Building</t>
+  </si>
+  <si>
+    <t>Renewable EnergyEnergy Infrastructure</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Mid-term target is met: business and financial models are designed for key market sectors for testing in selected pilot projects. 
+9500 small-scale 
+projects</t>
+  </si>
+  <si>
+    <t>to the CO: Please estimate the number of MW.</t>
+  </si>
+  <si>
+    <t>Scale up energy finance</t>
+  </si>
+  <si>
+    <t>Financing Model</t>
+  </si>
+  <si>
+    <t>Urban NAMA</t>
+  </si>
+  <si>
+    <t>Transport Services</t>
+  </si>
+  <si>
+    <t>Number of people
+benefiting from the
+improved transport
+and urban systems</t>
+  </si>
+  <si>
+    <t>The target is achieved - 238,936 people benefitted from the improved transport and urban systems (including 115,606 women and 23,181 children).</t>
+  </si>
+  <si>
+    <t>Just transition – green biofuel to benefit women in rural areas of 
+Kazakhstan.</t>
+  </si>
+  <si>
+    <t>Number of households covered 
+with trainings (60%women) on 
+gender equality and climate</t>
+  </si>
+  <si>
+    <t>500 HH</t>
+  </si>
+  <si>
+    <t>Pilot of production cycle 
+implemented</t>
+  </si>
+  <si>
+    <t>Access to clean heating (biofuel)</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 At least 7,5000 customers 
 (including at least 4,000 women) 
 participate in rebate or coupon 
@@ -270,105 +388,6 @@
 completion rate of required 
 surveys
 The project was under suspension, which was lifted in 2023</t>
-  </si>
-  <si>
-    <t>De-risking Renewable Energy Investment</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Number of 
-direct project beneficiaries</t>
-  </si>
-  <si>
-    <t>Mid-term target is met: over 5,000 people (60% women) are expected to benefit from solar plant in Shaulder region after a site-specific auction, supported by the Project. The figure is not yet confirmed. The number of beneficiaries of the 2 MWt project supported via the bonds issuance and the 0.5 MWt power plant that refused the subsidy is to be confirmed.</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>25 policy –makers 
-trained
-Capacity of 
-the Government to design and 
-implement policy initiatives enabling 
-development of renewable energy 
-market</t>
-  </si>
-  <si>
-    <t>he Government has 
-limited capacity to 
-deliver renewable 
-energy derisking 
-strategies</t>
-  </si>
-  <si>
-    <t>Mid-term target is met: knowledge gaps were identified; a capacity building plan was implemented:
-- 3 study tours to Netherlands, Finland and Denmark for policy makers were organized;
-- 7 regional workshops (2018) were organized to clarify the procedures of RE auctions in six regions of Kazakhstan. Over 70 potential investors and representatives of municipal authorities participated.
-- 7 renewable energy auctions workshops in three regions of Kazakhstan were organized for more than 200 potential investors, representatives of state bodies, 2 webinars were held in 2019;
-- participation and seminars at events - 2 RES summits in 2019, a seminar at Financial Settlement Center of Renewable Energy LLP and Power Expo Kazakhstan.</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Government Capacity-Building</t>
-  </si>
-  <si>
-    <t>Renewable EnergyEnergy Infrastructure</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>Mid-term target is met: business and financial models are designed for key market sectors for testing in selected pilot projects. 
-9500 small-scale 
-projects</t>
-  </si>
-  <si>
-    <t>to the CO: Please estimate the number of MW.</t>
-  </si>
-  <si>
-    <t>Scale up energy finance</t>
-  </si>
-  <si>
-    <t>Financing Model</t>
-  </si>
-  <si>
-    <t>Urban NAMA</t>
-  </si>
-  <si>
-    <t>Transport Services</t>
-  </si>
-  <si>
-    <t>Number of people
-benefiting from the
-improved transport
-and urban systems</t>
-  </si>
-  <si>
-    <t>The target is achieved - 238,936 people benefitted from the improved transport and urban systems (including 115,606 women and 23,181 children).</t>
-  </si>
-  <si>
-    <t>Just transition – green biofuel to benefit women in rural areas of 
-Kazakhstan.</t>
-  </si>
-  <si>
-    <t>Number of households covered 
-with trainings (60%women) on 
-gender equality and climate</t>
-  </si>
-  <si>
-    <t>500 HH</t>
-  </si>
-  <si>
-    <t>Pilot of production cycle 
-implemented</t>
-  </si>
-  <si>
-    <t>Access to clean heating (biofuel)</t>
   </si>
   <si>
     <t>Education Services</t>
@@ -408,9 +427,6 @@
     <t>The project was under suspension, which was lifted in 2023</t>
   </si>
   <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
     <t>28,500 people, 50% 
 women</t>
   </si>
@@ -521,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,8 +579,14 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF737373"/>
+      <name val="ProximaNova"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,8 +635,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -733,6 +761,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -741,7 +802,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -807,37 +868,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -848,6 +882,159 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,9 +1044,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1166,638 +1366,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D652C6A9-5991-4EDB-A8A4-AE884E7D9343}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
     <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="50.85546875" customWidth="1"/>
     <col min="13" max="13" width="67.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="45.75">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15"/>
-    </row>
-    <row r="2" spans="1:20" ht="83.25" customHeight="1">
-      <c r="A2" s="11">
+    </row>
+    <row r="2" spans="1:19" ht="105" customHeight="1">
+      <c r="A2" s="41">
         <v>136365</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="41">
         <v>304251</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="20">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="20">
         <v>1400</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="42" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="1:20" ht="95.25" customHeight="1">
-      <c r="A3" s="15">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="1:19" ht="167.25" customHeight="1">
+      <c r="A3" s="20">
         <v>130007</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="20">
         <v>2425796</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20">
         <v>450</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="19">
+      <c r="J3" s="20"/>
+      <c r="K3" s="46">
         <v>0.33</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="1:20" ht="63" customHeight="1">
-      <c r="A4" s="15">
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" ht="63" customHeight="1">
+      <c r="A4" s="55">
         <v>112788</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="55">
         <v>1214842</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="F4" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="43" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="94">
+        <v>5000000</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-    </row>
-    <row r="5" spans="1:20" ht="103.5" customHeight="1">
-      <c r="A5" s="32">
+      <c r="M4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" ht="103.5" customHeight="1">
+      <c r="A5" s="58">
         <v>5703</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="32">
+      <c r="C5" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="56">
         <v>3500000</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="44" t="s">
+      <c r="I5" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-    </row>
-    <row r="6" spans="1:20" ht="188.45" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="16" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" ht="188.45" customHeight="1">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="77"/>
+      <c r="I6" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="40" t="s">
+      <c r="J6" s="54"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-    </row>
-    <row r="7" spans="1:20" ht="144.94999999999999" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="16" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" ht="144.94999999999999" customHeight="1">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="47">
         <v>20</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15" t="s">
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="15"/>
-    </row>
-    <row r="8" spans="1:20" ht="159.6" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="14" t="s">
+    </row>
+    <row r="8" spans="1:19" ht="159.6" customHeight="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="19">
+      <c r="J8" s="20"/>
+      <c r="K8" s="46">
         <f>4000/7500</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15" t="s">
+      <c r="L8" s="59"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-    </row>
-    <row r="9" spans="1:20" ht="167.25">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" ht="167.25">
       <c r="A9" s="29">
         <v>5490</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="29">
+        <v>39</v>
+      </c>
+      <c r="D9" s="63">
         <v>4510000</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="71">
         <v>0</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="72">
         <v>28500</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="19">
+      <c r="J9" s="20"/>
+      <c r="K9" s="46">
         <v>0.6</v>
       </c>
-      <c r="L9" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
+      <c r="L9" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-    </row>
-    <row r="10" spans="1:20" ht="234.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="16" t="s">
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="29"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19" ht="234.75" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="F11" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="17">
+      <c r="G11" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="71">
         <v>25</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15" t="s">
+      <c r="I11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15" t="s">
+      <c r="P11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="T10" s="15"/>
-    </row>
-    <row r="11" spans="1:20" ht="91.5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="16" t="s">
+      <c r="S11" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="91.5">
+      <c r="A12" s="30"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="F12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="20">
         <v>0</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="20">
         <v>9500</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="S11" s="15" t="s">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T11" s="15"/>
-    </row>
-    <row r="12" spans="1:20" ht="76.5">
-      <c r="A12" s="15">
+    </row>
+    <row r="13" spans="1:19" ht="76.5">
+      <c r="A13" s="55">
         <v>4670</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="B13" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="55">
         <v>5930000</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="E13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="27">
+      <c r="F13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="73">
         <v>238936</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15" t="s">
+      <c r="I13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="48"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-    </row>
-    <row r="13" spans="1:20" ht="87" customHeight="1">
-      <c r="A13" s="32">
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" ht="87" customHeight="1">
+      <c r="A14" s="58">
         <v>125105</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32">
+      <c r="B14" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56">
         <v>300000</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="F14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="19">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="46">
         <v>0.6</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L14" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-    </row>
-    <row r="14" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15">
+      <c r="M14" s="48"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:19" ht="43.5" customHeight="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75">
         <v>1</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="21" t="s">
+      <c r="I15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="L9:L11"/>
+  <mergeCells count="1">
+    <mergeCell ref="L14:L15"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S14" xr:uid="{FF02EA9A-25F1-44FE-9762-C6E48B264AA6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S15" xr:uid="{FF02EA9A-25F1-44FE-9762-C6E48B264AA6}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R14" xr:uid="{6F084E5F-2A8F-4FD2-81E1-4B73CFE7842A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R15" xr:uid="{6F084E5F-2A8F-4FD2-81E1-4B73CFE7842A}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q14" xr:uid="{8667D527-8F04-4B44-85D0-3846B36BEC0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q15" xr:uid="{8667D527-8F04-4B44-85D0-3846B36BEC0F}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P14" xr:uid="{B93A8927-73BA-404E-A448-7FFB04CA5135}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P15" xr:uid="{B93A8927-73BA-404E-A448-7FFB04CA5135}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O14" xr:uid="{96CB3550-7BA7-4635-93A3-DBACF6BD966F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O15" xr:uid="{96CB3550-7BA7-4635-93A3-DBACF6BD966F}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{63FCFC0C-AA18-4E2D-9AFF-E8304122EAB6}"/>
@@ -1816,7 +2023,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E3 E5:E11 E13:E24</xm:sqref>
+          <xm:sqref>E2:E3 E5:E12 E14:E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1877,7 +2084,7 @@
       <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
@@ -1933,7 +2140,7 @@
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="21"/>
@@ -1979,7 +2186,7 @@
       <c r="K3" s="19">
         <v>0.33</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="21"/>
@@ -2015,15 +2222,15 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="34" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -2034,37 +2241,37 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="103.5" customHeight="1">
-      <c r="A5" s="32">
+      <c r="A5" s="82">
         <v>5703</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="32">
+      <c r="C5" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="82">
         <v>3500000</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="44" t="s">
-        <v>44</v>
+      <c r="L5" s="86" t="s">
+        <v>45</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="15"/>
@@ -2076,12 +2283,12 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="188.45" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="16" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>46</v>
@@ -2095,8 +2302,8 @@
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="40" t="s">
+      <c r="L6" s="87"/>
+      <c r="M6" s="31" t="s">
         <v>49</v>
       </c>
       <c r="N6" s="15"/>
@@ -2108,10 +2315,10 @@
       <c r="T6" s="15"/>
     </row>
     <row r="7" spans="1:20" ht="144.94999999999999" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="16" t="s">
         <v>50</v>
       </c>
@@ -2129,7 +2336,7 @@
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="21"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15" t="s">
@@ -2148,12 +2355,12 @@
       <c r="T7" s="15"/>
     </row>
     <row r="8" spans="1:20" ht="159.6" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>55</v>
@@ -2165,14 +2372,14 @@
         <v>57</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="19">
         <f>4000/7500</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="88"/>
       <c r="M8" s="22"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15" t="s">
@@ -2187,16 +2394,16 @@
       <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" ht="167.25">
-      <c r="A9" s="29">
+      <c r="A9" s="83">
         <v>5490</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="C9" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="83">
         <v>4510000</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -2218,8 +2425,8 @@
       <c r="K9" s="19">
         <v>0.6</v>
       </c>
-      <c r="L9" s="44" t="s">
-        <v>44</v>
+      <c r="L9" s="86" t="s">
+        <v>45</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="15"/>
@@ -2235,55 +2442,55 @@
       <c r="T9" s="15"/>
     </row>
     <row r="10" spans="1:20" ht="234.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="17">
         <v>25</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="22"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T10" s="15"/>
     </row>
     <row r="11" spans="1:20" ht="91.5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
@@ -2292,24 +2499,24 @@
         <v>9500</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="46"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>60</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" s="15" t="s">
         <v>60</v>
@@ -2321,31 +2528,31 @@
         <v>4670</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="15">
         <v>5930000</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="27">
         <v>238936</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="47" t="s">
-        <v>44</v>
+      <c r="L12" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="15"/>
@@ -2361,32 +2568,32 @@
       <c r="T12" s="15"/>
     </row>
     <row r="13" spans="1:20" ht="87" customHeight="1">
-      <c r="A13" s="32">
+      <c r="A13" s="82">
         <v>125105</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32">
+      <c r="B13" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82">
         <v>300000</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="15"/>
       <c r="K13" s="19">
         <v>0.6</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="86" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="22"/>
@@ -2399,24 +2606,24 @@
       <c r="T13" s="15"/>
     </row>
     <row r="14" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="15"/>
       <c r="F14" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15">
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="46"/>
+      <c r="L14" s="88"/>
       <c r="M14" s="21" t="s">
         <v>49</v>
       </c>
@@ -2430,6 +2637,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="C5:C8"/>
@@ -2440,11 +2652,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="L13:L14"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{60EFCDB0-223F-4A4D-B6F5-BBDC24BF85A5}"/>
@@ -2550,7 +2757,7 @@
         <v>304251</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>22</v>
@@ -2586,10 +2793,10 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2610,40 +2817,40 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="101.45">
       <c r="A5">
         <v>5703</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>37</v>
+      <c r="B5" s="95" t="s">
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>3500000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="188.45">
-      <c r="B6" s="48"/>
+      <c r="B6" s="95"/>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>46</v>
@@ -2652,14 +2859,14 @@
         <v>47</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="144.94999999999999">
-      <c r="B7" s="48"/>
+      <c r="B7" s="95"/>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>51</v>
@@ -2673,7 +2880,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="159.6">
-      <c r="B8" s="48"/>
+      <c r="B8" s="95"/>
       <c r="E8" s="3"/>
       <c r="F8" s="7" t="s">
         <v>55</v>
@@ -2682,10 +2889,10 @@
         <v>56</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="159.6">
@@ -2696,13 +2903,13 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>4510000</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>61</v>
@@ -2711,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>62</v>
@@ -2722,33 +2929,33 @@
         <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.95">
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72.599999999999994">
@@ -2756,32 +2963,32 @@
         <v>4670</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>5930000</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
         <v>180000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="87">
       <c r="A13">
         <v>125105</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>79</v>
+      <c r="B13" s="89" t="s">
+        <v>80</v>
       </c>
       <c r="D13">
         <v>300000</v>
@@ -2790,7 +2997,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>500</v>
@@ -2798,18 +3005,18 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="43.5">
-      <c r="B14" s="48"/>
+      <c r="B14" s="95"/>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2854,160 +3061,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="36" t="s">
-        <v>100</v>
+      <c r="A2" s="90" t="s">
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="90"/>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="90"/>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
-        <v>104</v>
+      <c r="A5" s="91" t="s">
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="91"/>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="91"/>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="91"/>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="91"/>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="38" t="s">
-        <v>113</v>
+      <c r="A10" s="92" t="s">
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="38"/>
+      <c r="A11" s="92"/>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="39" t="s">
-        <v>116</v>
+      <c r="A12" s="93" t="s">
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="93"/>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="93"/>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3022,26 +3229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3290,8 +3477,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E152319-825F-40FF-A1D2-C8F0D68E3D5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E0917F-458B-4639-A6C5-A70FE0FCDA82}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3299,5 +3506,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E0917F-458B-4639-A6C5-A70FE0FCDA82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E152319-825F-40FF-A1D2-C8F0D68E3D5D}"/>
 </file>
--- a/01_Input/00_CO Validation/Kazakhstan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kazakhstan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="414" documentId="11_652E137AF52521E58F19B0408CBE37AD98A83948" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CAD6BEA-17E6-4159-9A83-E490AC16EACF}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="11_652E137AF52521E58F19B0408CBE37AD98A83948" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C70ECBE-1D55-477D-8603-0E123A47D414}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
     <t>PIMS+</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>Energy Efficiency Services</t>
   </si>
   <si>
     <t>Number of households 
@@ -427,6 +427,9 @@
     <t>GHG Emission Reduction</t>
   </si>
   <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 At least 7,5000 customers 
 (including at least 4,000 women) 
@@ -539,9 +542,6 @@
   </si>
   <si>
     <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
-  </si>
-  <si>
-    <t>Energy Efficiency Services</t>
   </si>
   <si>
     <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
@@ -847,7 +847,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1061,6 +1061,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,47 +1106,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1429,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D652C6A9-5991-4EDB-A8A4-AE884E7D9343}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1696,9 +1693,9 @@
       <c r="AG4" s="18"/>
     </row>
     <row r="5" spans="1:33" ht="106.5">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="52"/>
       <c r="E5" s="51" t="s">
         <v>19</v>
@@ -1708,7 +1705,7 @@
       </c>
       <c r="G5" s="70"/>
       <c r="H5" s="72"/>
-      <c r="I5" s="96"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="35"/>
@@ -1731,7 +1728,7 @@
         <v>44</v>
       </c>
       <c r="U5" s="80"/>
-      <c r="Y5" s="94"/>
+      <c r="Y5" s="84"/>
       <c r="Z5" s="41"/>
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
@@ -1742,13 +1739,13 @@
       <c r="AG5" s="18"/>
     </row>
     <row r="6" spans="1:33" ht="103.5" customHeight="1">
-      <c r="A6" s="91">
+      <c r="A6" s="81">
         <v>5703</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="81" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="67">
@@ -1802,7 +1799,7 @@
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
       <c r="D7" s="57"/>
-      <c r="E7" s="92"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="70" t="s">
         <v>53</v>
       </c>
@@ -2222,13 +2219,13 @@
       <c r="AG14" s="18"/>
     </row>
     <row r="15" spans="1:33" ht="87" customHeight="1">
-      <c r="A15" s="91">
+      <c r="A15" s="81">
         <v>125105</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="86" t="s">
         <v>89</v>
       </c>
       <c r="D15" s="67">
@@ -2280,7 +2277,7 @@
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="83" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="70" t="s">
@@ -2611,16 +2608,16 @@
       <c r="T4" s="13"/>
     </row>
     <row r="5" spans="1:20" ht="103.5" customHeight="1">
-      <c r="A5" s="84">
+      <c r="A5" s="89">
         <v>5703</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="89">
         <v>3500000</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2640,7 +2637,7 @@
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="93" t="s">
         <v>52</v>
       </c>
       <c r="M5" s="20"/>
@@ -2653,12 +2650,12 @@
       <c r="T5" s="13"/>
     </row>
     <row r="6" spans="1:20" ht="188.45" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="14" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>53</v>
@@ -2672,7 +2669,7 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="82"/>
+      <c r="L6" s="94"/>
       <c r="M6" s="29" t="s">
         <v>56</v>
       </c>
@@ -2685,10 +2682,10 @@
       <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" ht="144.94999999999999" customHeight="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="14" t="s">
         <v>57</v>
       </c>
@@ -2706,7 +2703,7 @@
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="82"/>
+      <c r="L7" s="94"/>
       <c r="M7" s="19"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13" t="s">
@@ -2725,10 +2722,10 @@
       <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="159.6" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="11" t="s">
         <v>62</v>
       </c>
@@ -2742,14 +2739,14 @@
         <v>65</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="17">
         <f>4000/7500</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="20"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13" t="s">
@@ -2764,16 +2761,16 @@
       <c r="T8" s="13"/>
     </row>
     <row r="9" spans="1:20" ht="167.25">
-      <c r="A9" s="87">
+      <c r="A9" s="90">
         <v>5490</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="90">
         <v>4510000</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -2795,7 +2792,7 @@
       <c r="K9" s="17">
         <v>0.6</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="L9" s="93" t="s">
         <v>52</v>
       </c>
       <c r="M9" s="20"/>
@@ -2812,10 +2809,10 @@
       <c r="T9" s="13"/>
     </row>
     <row r="10" spans="1:20" ht="234.75" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="14" t="s">
         <v>19</v>
       </c>
@@ -2833,7 +2830,7 @@
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="82"/>
+      <c r="L10" s="94"/>
       <c r="M10" s="20"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13" t="s">
@@ -2852,10 +2849,10 @@
       <c r="T10" s="13"/>
     </row>
     <row r="11" spans="1:20" ht="91.5">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="14" t="s">
         <v>31</v>
       </c>
@@ -2873,7 +2870,7 @@
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="83"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="19" t="s">
         <v>80</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>5930000</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>85</v>
@@ -2938,14 +2935,14 @@
       <c r="T12" s="13"/>
     </row>
     <row r="13" spans="1:20" ht="87" customHeight="1">
-      <c r="A13" s="84">
+      <c r="A13" s="89">
         <v>125105</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89">
         <v>300000</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -2963,7 +2960,7 @@
       <c r="K13" s="17">
         <v>0.6</v>
       </c>
-      <c r="L13" s="81" t="s">
+      <c r="L13" s="93" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="20"/>
@@ -2976,10 +2973,10 @@
       <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="13"/>
       <c r="F14" s="18" t="s">
         <v>92</v>
@@ -2993,7 +2990,7 @@
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="83"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="19" t="s">
         <v>56</v>
       </c>
@@ -3007,6 +3004,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="L13:L14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="C5:C8"/>
@@ -3017,11 +3019,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="L13:L14"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{60EFCDB0-223F-4A4D-B6F5-BBDC24BF85A5}"/>
@@ -3127,7 +3124,7 @@
         <v>304251</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>24</v>
@@ -3163,10 +3160,10 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3194,7 +3191,7 @@
       <c r="A5">
         <v>5703</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="97" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
@@ -3213,14 +3210,14 @@
         <v>49</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="188.45">
-      <c r="B6" s="98"/>
+      <c r="B6" s="97"/>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>53</v>
@@ -3229,12 +3226,12 @@
         <v>54</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="144.94999999999999">
-      <c r="B7" s="98"/>
+      <c r="B7" s="97"/>
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3250,7 +3247,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="159.6">
-      <c r="B8" s="98"/>
+      <c r="B8" s="97"/>
       <c r="E8" s="3"/>
       <c r="F8" s="5" t="s">
         <v>63</v>
@@ -3259,10 +3256,10 @@
         <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="159.6">
@@ -3288,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>70</v>
@@ -3299,13 +3296,13 @@
         <v>98</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>75</v>
@@ -3322,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72.599999999999994">
@@ -3357,7 +3354,7 @@
       <c r="A13">
         <v>125105</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="96" t="s">
         <v>88</v>
       </c>
       <c r="D13">
@@ -3375,9 +3372,9 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="43.5">
-      <c r="B14" s="98"/>
+      <c r="B14" s="97"/>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>92</v>
@@ -3438,87 +3435,87 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="45.75">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="98" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="99" t="s">
-        <v>114</v>
-      </c>
       <c r="B4" s="74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75">
-      <c r="A5" s="99" t="s">
-        <v>118</v>
+      <c r="A5" s="98" t="s">
+        <v>119</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="91.5">
-      <c r="A6" s="99" t="s">
-        <v>120</v>
+      <c r="A6" s="98" t="s">
+        <v>121</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45.75">
-      <c r="A7" s="99" t="s">
-        <v>122</v>
+      <c r="A7" s="98" t="s">
+        <v>123</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45.75">
-      <c r="A8" s="99" t="s">
-        <v>124</v>
+      <c r="A8" s="98" t="s">
+        <v>125</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45.75">
-      <c r="A9" s="99" t="s">
-        <v>102</v>
+      <c r="A9" s="98" t="s">
+        <v>103</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>127</v>
+      <c r="B10" s="99" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75">
-      <c r="A11" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="100" t="s">
+      <c r="A11" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="99" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="98" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="74" t="s">
@@ -3526,39 +3523,39 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
-      <c r="A13" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="100" t="s">
+      <c r="A13" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="99" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="99" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="99" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="99" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="98" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="74" t="s">
@@ -3566,42 +3563,42 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="99" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="99" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="99" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="99" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3611,17 +3608,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3646,6 +3645,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3725,6 +3725,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3869,24 +3874,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFC866BA-E0E2-463C-B854-038ECE867413}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E152319-825F-40FF-A1D2-C8F0D68E3D5D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78E0917F-458B-4639-A6C5-A70FE0FCDA82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B7EEB1-3A6F-4E80-9CEE-7E002D3EE09B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E152319-825F-40FF-A1D2-C8F0D68E3D5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFC866BA-E0E2-463C-B854-038ECE867413}"/>
 </file>